--- a/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_gcu_persistent.xlsx
+++ b/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_gcu_persistent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,45 +456,50 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>ed_simul</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>log_w_simul</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>cf1_simul</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>cf10_simul</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>diffcpicf_simul</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>grpe_shock_series</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>grpf_shock_series</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>vu_shock_series</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>excess_demand_shock_series</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>gscpi_shock_series</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>gcu_shock_series</t>
         </is>
@@ -540,6 +545,9 @@
       <c r="M2" t="n">
         <v>0</v>
       </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -581,6 +589,9 @@
       <c r="M3" t="n">
         <v>0</v>
       </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -622,6 +633,9 @@
       <c r="M4" t="n">
         <v>0</v>
       </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -663,6 +677,9 @@
       <c r="M5" t="n">
         <v>0</v>
       </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -702,7 +719,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>17.97531934592867</v>
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -710,28 +730,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08489687881306514</v>
+        <v>-4.931358860202738</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03128864188959482</v>
+        <v>-1.773924655291139</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.405265987906693</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002356835413459544</v>
+        <v>-0.01027366429208904</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0009502773297298672</v>
+        <v>-0.01232839715050684</v>
       </c>
       <c r="G7" t="n">
-        <v>0.007822160472398705</v>
+        <v>-0.1336219214356354</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>-0.05387643191801919</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>-0.4434811638227847</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -743,7 +763,10 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>16.1777874113358</v>
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="8">
@@ -751,28 +774,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.48980974508977</v>
+        <v>-63.62594773106012</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1642706223989655</v>
+        <v>-23.9108603566087</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>4.597682704157957</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.007582448092559535</v>
+        <v>-0.1451473145312051</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.003867104631409813</v>
+        <v>-0.1713932664781571</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.03324549512734267</v>
+        <v>-2.072746630074394</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>-0.789817320035234</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>-6.42119625297496</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -784,7 +807,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>14.56000867020222</v>
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.05</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +818,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.366858799388922</v>
+        <v>1.093409748770725</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.2195174148506608</v>
+        <v>-13.58845325341711</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-10.64263328045829</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.04037537664211548</v>
+        <v>-0.1246120663893685</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.01196445111472526</v>
+        <v>-0.1686597421062303</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.08812484884000787</v>
+        <v>-4.75967389480674</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>-1.303781844254574</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>-9.818309566329237</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -825,7 +851,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>13.104007803182</v>
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.645</v>
       </c>
     </row>
     <row r="10">
@@ -833,28 +862,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.2859221335108167</v>
+        <v>-24.360512959159</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.2165640728825186</v>
+        <v>-16.34068968281312</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>-0.9848757121091607</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.05621848894654476</v>
+        <v>-0.1649007544775698</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01693088675510634</v>
+        <v>-0.2295610245041278</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1422658670606375</v>
+        <v>-4.351659024233268</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>-1.472904773783171</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-13.90348198703252</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -866,7 +895,10 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>11.7936070228638</v>
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.2805</v>
       </c>
     </row>
     <row r="11">
@@ -874,28 +906,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.354622408394899</v>
+        <v>-24.58166884480416</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.2971578926481125</v>
+        <v>-23.6626210405422</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5.862351755973275</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0676538680781384</v>
+        <v>-0.2037194339306222</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.02371731844895369</v>
+        <v>-0.2910151966161382</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2267343361085239</v>
+        <v>-5.345471922482045</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-2.078242091977003</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-19.24203416190965</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -907,7 +939,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>10.61424632057742</v>
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.95245</v>
       </c>
     </row>
     <row r="12">
@@ -915,28 +950,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.3010178484487621</v>
+        <v>-14.97529278696832</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.303426378406097</v>
+        <v>-18.92142635769279</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>-8.012880067830418</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.08291936707940539</v>
+        <v>-0.2192342417254936</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03084068083741231</v>
+        <v>-0.328453428583559</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2515839916042877</v>
+        <v>-6.307596244568522</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>-2.467826799382231</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-16.05555095354191</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -948,7 +983,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>9.55282168851968</v>
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.657205</v>
       </c>
     </row>
     <row r="13">
@@ -956,28 +994,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.2911105344952499</v>
+        <v>-21.03618151959199</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2915276310999646</v>
+        <v>-19.19096090015556</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-4.227397294105839</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.09056118018580135</v>
+        <v>-0.2491726375641008</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03595612075746983</v>
+        <v>-0.381043882382539</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2367936171170577</v>
+        <v>-6.37083046916099</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-2.721997367564664</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-14.76925060049418</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -989,7 +1027,10 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>8.597539519667713</v>
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.3914845</v>
       </c>
     </row>
     <row r="14">
@@ -997,28 +1038,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.2852813937232179</v>
+        <v>-17.83566383103257</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.3034024137034547</v>
+        <v>-20.84589623519009</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-1.976540340785974</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.09633709255724039</v>
+        <v>-0.2711647358230913</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.04134776074716922</v>
+        <v>-0.4256330419601204</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2426600900178624</v>
+        <v>-6.768632770975222</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-3.12230976823948</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-16.3035671091619</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1030,7 +1071,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>7.737785567700942</v>
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.15233605</v>
       </c>
     </row>
     <row r="15">
@@ -1038,28 +1082,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.2625380862826683</v>
+        <v>-16.59982210957366</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2857406629603923</v>
+        <v>-18.03516267772444</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-5.038647240490123</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1005244382552583</v>
+        <v>-0.2903311274472379</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.04624102084223036</v>
+        <v>-0.4671325972340545</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2283704034643387</v>
+        <v>-6.951823308500701</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>-3.406434970226389</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>-13.90288962020868</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1071,7 +1115,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>6.964007010930848</v>
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.937102445</v>
       </c>
     </row>
     <row r="16">
@@ -1079,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.2516440701404535</v>
+        <v>-16.95114258473513</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.2724355580228295</v>
+        <v>-18.21968377341345</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-6.715905818897568</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.101283877790108</v>
+        <v>-0.3105283849818039</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.05023353034821012</v>
+        <v>-0.5095104536958923</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.2053571993672548</v>
+        <v>-6.918075586173199</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-3.651395445469375</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-12.76532965205237</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1112,7 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>6.267606309837763</v>
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.7433922005</v>
       </c>
     </row>
     <row r="17">
@@ -1120,28 +1170,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.2386162652717019</v>
+        <v>-15.42452500804967</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2645479241712339</v>
+        <v>-17.78406112501899</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-6.344279842884863</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1027423751935366</v>
+        <v>-0.3272715914080576</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.05418669193679041</v>
+        <v>-0.5480717662160165</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1909704595286763</v>
+        <v>-7.137162219850943</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-3.934574606485954</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-12.35037048367575</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1153,7 +1203,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>5.640845678853987</v>
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.56905298045</v>
       </c>
     </row>
     <row r="18">
@@ -1161,28 +1214,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.2250862029654537</v>
+        <v>-14.90582595183971</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2477014235719998</v>
+        <v>-16.34675468496219</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-6.898123082716324</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.1034668075719206</v>
+        <v>-0.3430928529766183</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.05767631555120287</v>
+        <v>-0.5853363310956158</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1712692996243735</v>
+        <v>-7.144362860178683</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>-4.152221731990116</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>-10.82778279430455</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1194,7 +1247,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>5.076761110968588</v>
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.412147682405</v>
       </c>
     </row>
     <row r="19">
@@ -1202,28 +1258,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.2141819719505176</v>
+        <v>-14.29548364803988</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.236174214143405</v>
+        <v>-16.14371335869049</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-8.207980749896659</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.1028840357649588</v>
+        <v>-0.3577853642024558</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.06076251448680763</v>
+        <v>-0.6210750402157155</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1546903417221087</v>
+        <v>-7.102562603836066</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-4.361797989272175</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-10.17172992702058</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1235,7 +1291,10 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>4.56908499987173</v>
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.2709329141645</v>
       </c>
     </row>
     <row r="20">
@@ -1243,28 +1302,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.2034286744339057</v>
+        <v>-13.51860749135949</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.2250391734420632</v>
+        <v>-15.32962034225006</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-9.033589109832057</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.1026358968688232</v>
+        <v>-0.3709723101450201</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.06368172982328994</v>
+        <v>-0.6548715589441142</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.1420818060420675</v>
+        <v>-7.158317451377024</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-4.566607923448909</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-9.482961791557234</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1276,7 +1335,10 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.112176499884557</v>
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.14383962274805</v>
       </c>
     </row>
     <row r="21">
@@ -1284,28 +1346,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.1936022058789843</v>
+        <v>-13.00549347262792</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.2125426859385991</v>
+        <v>-14.53824914132008</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-9.36242496266982</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.102189380988201</v>
+        <v>-0.3833117416352604</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.06627148081596397</v>
+        <v>-0.687385292625684</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1276219990804801</v>
+        <v>-7.134480343991841</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>-4.738596286330706</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>-8.452422161954761</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1317,7 +1379,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>3.700958849896101</v>
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.029455660473245</v>
       </c>
     </row>
     <row r="22">
@@ -1325,28 +1390,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.1846112734656968</v>
+        <v>-12.41562281123006</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.2028356417059552</v>
+        <v>-14.10819393129238</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-10.11066499511725</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.1015395919513097</v>
+        <v>-0.3946198082507958</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.06862945817161828</v>
+        <v>-0.7184243496537592</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.115681121235585</v>
+        <v>-7.114066270929921</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-4.905030733319959</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-7.885581333209567</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1358,7 +1423,10 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>3.330862964906491</v>
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.9265100944259205</v>
       </c>
     </row>
     <row r="23">
@@ -1366,28 +1434,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.1762376444903663</v>
+        <v>-11.88899772964316</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1930357055935841</v>
+        <v>-13.41762559568937</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>-10.92017449889852</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.1009521969173905</v>
+        <v>-0.4050540160942263</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.07079844610929849</v>
+        <v>-0.7481468439778671</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1054792659050916</v>
+        <v>-7.103861750628229</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-5.057436865595778</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>-7.245859648801906</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1399,7 +1467,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>2.997776668415842</v>
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.8338590849833284</v>
       </c>
     </row>
     <row r="24">
@@ -1407,28 +1478,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.1685570181980851</v>
+        <v>-11.42765549120939</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.1838038411503622</v>
+        <v>-12.88415094000905</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>-11.45411675725739</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.1002598050908906</v>
+        <v>-0.4147699741778041</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.07274266226226782</v>
+        <v>-0.7767159827058906</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.09541857172830204</v>
+        <v>-7.071533232606622</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>-5.193033828661287</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>-6.578737450700696</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1440,7 +1511,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>2.697999001574258</v>
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.7504731764849956</v>
       </c>
     </row>
     <row r="25">
@@ -1448,28 +1522,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.1614986857386433</v>
+        <v>-10.9766441570612</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.175820851320506</v>
+        <v>-12.42433658792732</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-11.97011925267832</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.09962222524851799</v>
+        <v>-0.4237861018800214</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.07451804365418134</v>
+        <v>-0.8041575930985436</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.08668462895440085</v>
+        <v>-7.053766274360515</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-5.321131335991224</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>-6.074096419737687</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1481,7 +1555,10 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>2.428199101416832</v>
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.675425858836496</v>
       </c>
     </row>
     <row r="26">
@@ -1489,28 +1566,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.1550251661274545</v>
+        <v>-10.57780763125547</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.1680667508202908</v>
+        <v>-11.91453978708814</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-12.57178305717605</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.09902654948200315</v>
+        <v>-0.4322213961198337</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.07612993173505163</v>
+        <v>-0.8306021121766823</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.07864219526987612</v>
+        <v>-7.031235000679367</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-5.436979415527273</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>-5.546096956748549</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1522,7 +1599,10 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>2.185379191275149</v>
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.6078832729528464</v>
       </c>
     </row>
     <row r="27">
@@ -1530,28 +1610,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.149072540471846</v>
+        <v>-10.20915329462214</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.1610558032097525</v>
+        <v>-11.50498272824016</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>-13.10874111616838</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.09840126098546986</v>
+        <v>-0.4401387301503741</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.07758347455369692</v>
+        <v>-0.8561249954132377</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.07123461470783737</v>
+        <v>-7.003754743277414</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>-5.542763878762674</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>-5.078140760187938</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1563,7 +1643,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1.966841272147634</v>
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.5470949456575618</v>
       </c>
     </row>
     <row r="28">
@@ -1571,28 +1654,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.1436415537694498</v>
+        <v>-9.872162079994443</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.1546992560349184</v>
+        <v>-11.11319487436796</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-13.56730922024167</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.09782496509281369</v>
+        <v>-0.4476036118188654</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.0789047563747088</v>
+        <v>-0.8808054006132239</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.06465086025547628</v>
+        <v>-6.98426717961914</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>-5.640860483610384</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-4.667730261799273</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1604,7 +1687,10 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.770157144932871</v>
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.4923854510918056</v>
       </c>
     </row>
     <row r="29">
@@ -1612,28 +1698,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.1386887032129631</v>
+        <v>-9.569100015019309</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.148750607958426</v>
+        <v>-10.74159712674104</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-14.0242712772363</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.0972852452163864</v>
+        <v>-0.4546861346472561</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.0800985611255844</v>
+        <v>-0.9047281506507722</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.05852087925732893</v>
+        <v>-6.963568874677635</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-5.73008478224345</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>-4.264812354748812</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1645,7 +1731,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1.593141430439583</v>
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.443146905982625</v>
       </c>
     </row>
     <row r="30">
@@ -1653,28 +1742,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.1341617587850499</v>
+        <v>-9.290983793584759</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.1433860939327411</v>
+        <v>-10.42210972054325</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>-14.47627927797091</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.09676756672228157</v>
+        <v>-0.4614338150232449</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.08117702951487347</v>
+        <v>-0.927955610134734</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.05294639080195632</v>
+        <v>-6.944059971185857</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>-5.812274997818472</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>-3.914236111793739</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1686,7 +1775,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1.433827287395625</v>
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.3988322153843625</v>
       </c>
     </row>
     <row r="31">
@@ -1694,28 +1786,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.1300478093127057</v>
+        <v>-9.040659596459104</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.1384723823076274</v>
+        <v>-10.11914249365485</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-14.88466337663399</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.0962867524528401</v>
+        <v>-0.4679009485472463</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.08215322070576331</v>
+        <v>-0.9505572591258818</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.04792582407295837</v>
+        <v>-6.927733986675539</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>-5.887997136087042</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-3.595256310549363</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1727,7 +1819,10 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1.290444558656063</v>
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.3589489938459263</v>
       </c>
     </row>
     <row r="32">
@@ -1735,28 +1830,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.1263072734042061</v>
+        <v>-8.814548328752752</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.1339683274435478</v>
+        <v>-9.846414581676884</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>-15.26442707159904</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.09583528540837302</v>
+        <v>-0.4741328897120596</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.08303394121471963</v>
+        <v>-0.9725936299477638</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.04331938781777186</v>
+        <v>-6.912371815472011</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-5.957454299153365</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>-3.298048801034868</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1768,7 +1863,10 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1.161400102790456</v>
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.3230540944613337</v>
       </c>
     </row>
     <row r="33">
@@ -1776,28 +1874,28 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.1229089549857038</v>
+        <v>-8.609910770334411</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.1298940055359867</v>
+        <v>-9.603345883896095</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>-15.6346872792369</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.09541687856440985</v>
+        <v>-0.4801683645554613</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.08382933604519355</v>
+        <v>-0.9941184068735998</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.03914495708858937</v>
+        <v>-6.899642982921577</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>-6.021662590212655</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>-3.034184295265134</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1809,7 +1907,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1.045260092511411</v>
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.2907486850152003</v>
       </c>
     </row>
   </sheetData>

--- a/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_gcu_persistent.xlsx
+++ b/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_gcu_persistent.xlsx
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>0.04386139568535351</v>
       </c>
     </row>
     <row r="7">
@@ -730,28 +730,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>-4.931358860202738</v>
+        <v>-0.04325925644676523</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.773924655291139</v>
+        <v>-0.01556136224434579</v>
       </c>
       <c r="D7" t="n">
-        <v>0.405265987906693</v>
+        <v>0.003555106370678231</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.01027366429208904</v>
+        <v>-9.01234509307609e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.01232839715050684</v>
+        <v>-0.0001081481411169131</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1336219214356354</v>
+        <v>-0.001172168793665125</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05387643191801919</v>
+        <v>-0.0004726190996942498</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4434811638227847</v>
+        <v>-0.003890340561086449</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>4.5</v>
+        <v>0.03947525611681816</v>
       </c>
     </row>
     <row r="8">
@@ -774,28 +774,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-63.62594773106012</v>
+        <v>-0.5581445738575297</v>
       </c>
       <c r="C8" t="n">
-        <v>-23.9108603566087</v>
+        <v>-0.2097527414556894</v>
       </c>
       <c r="D8" t="n">
-        <v>4.597682704157957</v>
+        <v>0.04033215606455566</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.1451473145312051</v>
+        <v>-0.00127327275906393</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1713932664781571</v>
+        <v>-0.001503509575760737</v>
       </c>
       <c r="G8" t="n">
-        <v>-2.072746630074394</v>
+        <v>-0.01818271201943521</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.789817320035234</v>
+        <v>-0.006928497998642176</v>
       </c>
       <c r="I8" t="n">
-        <v>-6.42119625297496</v>
+        <v>-0.0563285259250088</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>4.05</v>
+        <v>0.03552773050513634</v>
       </c>
     </row>
     <row r="9">
@@ -818,28 +818,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1.093409748770725</v>
+        <v>0.009591695527411015</v>
       </c>
       <c r="C9" t="n">
-        <v>-13.58845325341711</v>
+        <v>-0.1192017049800114</v>
       </c>
       <c r="D9" t="n">
-        <v>-10.64263328045829</v>
+        <v>-0.09336014988965861</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.1246120663893685</v>
+        <v>-0.001093131830214727</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1686597421062303</v>
+        <v>-0.00147953033694221</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.75967389480674</v>
+        <v>-0.04175318800667321</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.303781844254574</v>
+        <v>-0.01143713827164597</v>
       </c>
       <c r="I9" t="n">
-        <v>-9.818309566329237</v>
+        <v>-0.08612895217001167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>3.645</v>
+        <v>0.03197495745462271</v>
       </c>
     </row>
     <row r="10">
@@ -862,28 +862,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-24.360512959159</v>
+        <v>-0.213697219599971</v>
       </c>
       <c r="C10" t="n">
-        <v>-16.34068968281312</v>
+        <v>-0.1433450911898881</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.9848757121091607</v>
+        <v>-0.008639604661942833</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1649007544775698</v>
+        <v>-0.001446555448190804</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.2295610245041278</v>
+        <v>-0.002013773385942137</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.351659024233268</v>
+        <v>-0.03817396766992695</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.472904773783171</v>
+        <v>-0.01292073181794995</v>
       </c>
       <c r="I10" t="n">
-        <v>-13.90348198703252</v>
+        <v>-0.1219652249674837</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>3.2805</v>
+        <v>0.02877746170916044</v>
       </c>
     </row>
     <row r="11">
@@ -906,28 +906,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-24.58166884480416</v>
+        <v>-0.2156372607616564</v>
       </c>
       <c r="C11" t="n">
-        <v>-23.6626210405422</v>
+        <v>-0.2075751168823587</v>
       </c>
       <c r="D11" t="n">
-        <v>5.862351755973275</v>
+        <v>0.05142618600309418</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2037194339306222</v>
+        <v>-0.001787083740085451</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.2910151966161382</v>
+        <v>-0.002552866537846278</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.345471922482045</v>
+        <v>-0.04689197182338649</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.078242091977003</v>
+        <v>-0.01823091974523204</v>
       </c>
       <c r="I11" t="n">
-        <v>-19.24203416190965</v>
+        <v>-0.1687964948333218</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>2.95245</v>
+        <v>0.0258997155382444</v>
       </c>
     </row>
     <row r="12">
@@ -950,28 +950,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>-14.97529278696832</v>
+        <v>-0.1313674484866475</v>
       </c>
       <c r="C12" t="n">
-        <v>-18.92142635769279</v>
+        <v>-0.1659840336812082</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.012880067830418</v>
+        <v>-0.07029122064687846</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.2192342417254936</v>
+        <v>-0.001923183964820063</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.328453428583559</v>
+        <v>-0.002881285159062897</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.307596244568522</v>
+        <v>-0.05533199494129397</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.467826799382231</v>
+        <v>-0.0216484655461247</v>
       </c>
       <c r="I12" t="n">
-        <v>-16.05555095354191</v>
+        <v>-0.1408437746639314</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>2.657205</v>
+        <v>0.02330974398441996</v>
       </c>
     </row>
     <row r="13">
@@ -994,28 +994,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>-21.03618151959199</v>
+        <v>-0.1845352562679491</v>
       </c>
       <c r="C13" t="n">
-        <v>-19.19096090015556</v>
+        <v>-0.1683484659247743</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.227397294105839</v>
+        <v>-0.03708390908719383</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2491726375641008</v>
+        <v>-0.002185811930032442</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.381043882382539</v>
+        <v>-0.00334262329973277</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.37083046916099</v>
+        <v>-0.05588670321043531</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.721997367564664</v>
+        <v>-0.02387812071864887</v>
       </c>
       <c r="I13" t="n">
-        <v>-14.76925060049418</v>
+        <v>-0.1295599889128841</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>2.3914845</v>
+        <v>0.02097876958597797</v>
       </c>
     </row>
     <row r="14">
@@ -1038,28 +1038,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-17.83566383103257</v>
+        <v>-0.1564594217207735</v>
       </c>
       <c r="C14" t="n">
-        <v>-20.84589623519009</v>
+        <v>-0.1828660206374988</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.976540340785974</v>
+        <v>-0.01733876359505546</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.2711647358230913</v>
+        <v>-0.002378732754770193</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4256330419601204</v>
+        <v>-0.003733771854034704</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.768632770975222</v>
+        <v>-0.059376336043319</v>
       </c>
       <c r="H14" t="n">
-        <v>-3.12230976823948</v>
+        <v>-0.02738977283939926</v>
       </c>
       <c r="I14" t="n">
-        <v>-16.3035671091619</v>
+        <v>-0.143019441611533</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2.15233605</v>
+        <v>0.01888089262738017</v>
       </c>
     </row>
     <row r="15">
@@ -1082,28 +1082,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>-16.59982210957366</v>
+        <v>-0.145618273170898</v>
       </c>
       <c r="C15" t="n">
-        <v>-18.03516267772444</v>
+        <v>-0.1582094812914783</v>
       </c>
       <c r="D15" t="n">
-        <v>-5.038647240490123</v>
+        <v>-0.04420042006681034</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.2903311274472379</v>
+        <v>-0.002546865692147621</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4671325972340545</v>
+        <v>-0.004097817536961949</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.951823308500701</v>
+        <v>-0.06098333457376255</v>
       </c>
       <c r="H15" t="n">
-        <v>-3.406434970226389</v>
+        <v>-0.02988219842110503</v>
       </c>
       <c r="I15" t="n">
-        <v>-13.90288962020868</v>
+        <v>-0.1219600285603534</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1.937102445</v>
+        <v>0.01699280336464215</v>
       </c>
     </row>
     <row r="16">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-16.95114258473513</v>
+        <v>-0.1487001544455828</v>
       </c>
       <c r="C16" t="n">
-        <v>-18.21968377341345</v>
+        <v>-0.1598281518495405</v>
       </c>
       <c r="D16" t="n">
-        <v>-6.715905818897568</v>
+        <v>-0.0589138005016468</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3105283849818039</v>
+        <v>-0.002724041673044139</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5095104536958923</v>
+        <v>-0.004469567923075906</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.918075586173199</v>
+        <v>-0.06068729013326535</v>
       </c>
       <c r="H16" t="n">
-        <v>-3.651395445469375</v>
+        <v>-0.03203106008748598</v>
       </c>
       <c r="I16" t="n">
-        <v>-12.76532965205237</v>
+        <v>-0.111981034984529</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.7433922005</v>
+        <v>0.01529352302817794</v>
       </c>
     </row>
     <row r="17">
@@ -1170,28 +1170,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>-15.42452500804967</v>
+        <v>-0.1353082389273393</v>
       </c>
       <c r="C17" t="n">
-        <v>-17.78406112501899</v>
+        <v>-0.1560067483793943</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.344279842884863</v>
+        <v>-0.05565379370547729</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.3272715914080576</v>
+        <v>-0.002870917753464832</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5480717662160165</v>
+        <v>-0.004807838520394255</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.137162219850943</v>
+        <v>-0.06260917923908768</v>
       </c>
       <c r="H17" t="n">
-        <v>-3.934574606485954</v>
+        <v>-0.03451518673372492</v>
       </c>
       <c r="I17" t="n">
-        <v>-12.35037048367575</v>
+        <v>-0.1083408973290426</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1.56905298045</v>
+        <v>0.01376417072536014</v>
       </c>
     </row>
     <row r="18">
@@ -1214,28 +1214,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-14.90582595183971</v>
+        <v>-0.1307580660181305</v>
       </c>
       <c r="C18" t="n">
-        <v>-16.34675468496219</v>
+        <v>-0.1433982950817065</v>
       </c>
       <c r="D18" t="n">
-        <v>-6.898123082716324</v>
+        <v>-0.06051226120345826</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.3430928529766183</v>
+        <v>-0.003009706276244855</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5853363310956158</v>
+        <v>-0.005134733685439581</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.144362860178683</v>
+        <v>-0.06267234526600825</v>
       </c>
       <c r="H18" t="n">
-        <v>-4.152221731990116</v>
+        <v>-0.03642444807202849</v>
       </c>
       <c r="I18" t="n">
-        <v>-10.82778279430455</v>
+        <v>-0.09498433310721087</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1.412147682405</v>
+        <v>0.01238775365282413</v>
       </c>
     </row>
     <row r="19">
@@ -1258,28 +1258,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>-14.29548364803988</v>
+        <v>-0.1254039729600356</v>
       </c>
       <c r="C19" t="n">
-        <v>-16.14371335869049</v>
+        <v>-0.1416171598912902</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.207980749896659</v>
+        <v>-0.07200269828979627</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.3577853642024558</v>
+        <v>-0.003138593085942447</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.6210750402157155</v>
+        <v>-0.005448243617839669</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.102562603836066</v>
+        <v>-0.06230566174936969</v>
       </c>
       <c r="H19" t="n">
-        <v>-4.361797989272175</v>
+        <v>-0.03826290950140925</v>
       </c>
       <c r="I19" t="n">
-        <v>-10.17172992702058</v>
+        <v>-0.0892292542267203</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.2709329141645</v>
+        <v>0.01114897828754172</v>
       </c>
     </row>
     <row r="20">
@@ -1302,28 +1302,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>-13.51860749135949</v>
+        <v>-0.1185889984587005</v>
       </c>
       <c r="C20" t="n">
-        <v>-15.32962034225006</v>
+        <v>-0.1344757087075348</v>
       </c>
       <c r="D20" t="n">
-        <v>-9.033589109832057</v>
+        <v>-0.079245165281049</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.3709723101450201</v>
+        <v>-0.003254272656716082</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6548715589441142</v>
+        <v>-0.005744716113986421</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.158317451377024</v>
+        <v>-0.06279475883524381</v>
       </c>
       <c r="H20" t="n">
-        <v>-4.566607923448909</v>
+        <v>-0.04005955941405264</v>
       </c>
       <c r="I20" t="n">
-        <v>-9.482961791557234</v>
+        <v>-0.08318718788171608</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1.14383962274805</v>
+        <v>0.01003408045878755</v>
       </c>
     </row>
     <row r="21">
@@ -1346,28 +1346,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>-13.00549347262792</v>
+        <v>-0.1140878190572431</v>
       </c>
       <c r="C21" t="n">
-        <v>-14.53824914132008</v>
+        <v>-0.1275335796319381</v>
       </c>
       <c r="D21" t="n">
-        <v>-9.36242496266982</v>
+        <v>-0.0821298051724185</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.3833117416352604</v>
+        <v>-0.00336251759414123</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.687385292625684</v>
+        <v>-0.006029935661629528</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.134480343991841</v>
+        <v>-0.06258565307544064</v>
       </c>
       <c r="H21" t="n">
-        <v>-4.738596286330706</v>
+        <v>-0.04156828934157956</v>
       </c>
       <c r="I21" t="n">
-        <v>-8.452422161954761</v>
+        <v>-0.0741470065890297</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1.029455660473245</v>
+        <v>0.00903067241290879</v>
       </c>
     </row>
     <row r="22">
@@ -1390,28 +1390,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>-12.41562281123006</v>
+        <v>-0.1089133089606926</v>
       </c>
       <c r="C22" t="n">
-        <v>-14.10819393129238</v>
+        <v>-0.1237610152852237</v>
       </c>
       <c r="D22" t="n">
-        <v>-10.11066499511725</v>
+        <v>-0.08869357559857804</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.3946198082507958</v>
+        <v>-0.003461715110993297</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.7184243496537592</v>
+        <v>-0.00630221893403126</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.114066270929921</v>
+        <v>-0.06240657512821693</v>
       </c>
       <c r="H22" t="n">
-        <v>-4.905030733319959</v>
+        <v>-0.04302829876859329</v>
       </c>
       <c r="I22" t="n">
-        <v>-7.885581333209567</v>
+        <v>-0.06917452061298844</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0.9265100944259205</v>
+        <v>0.008127605171617912</v>
       </c>
     </row>
     <row r="23">
@@ -1434,28 +1434,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>-11.88899772964316</v>
+        <v>-0.1042936067444297</v>
       </c>
       <c r="C23" t="n">
-        <v>-13.41762559568937</v>
+        <v>-0.1177031570820918</v>
       </c>
       <c r="D23" t="n">
-        <v>-10.92017449889852</v>
+        <v>-0.09579481892985903</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.4050540160942263</v>
+        <v>-0.003553246894770082</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.7481468439778671</v>
+        <v>-0.006562952950892334</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.103861750628229</v>
+        <v>-0.06231705822767059</v>
       </c>
       <c r="H23" t="n">
-        <v>-5.057436865595778</v>
+        <v>-0.0443652479031181</v>
       </c>
       <c r="I23" t="n">
-        <v>-7.245859648801906</v>
+        <v>-0.06356270342732739</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0.8338590849833284</v>
+        <v>0.007314844654456121</v>
       </c>
     </row>
     <row r="24">
@@ -1478,28 +1478,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>-11.42765549120939</v>
+        <v>-0.1002465838511676</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.88415094000905</v>
+        <v>-0.1130233684899113</v>
       </c>
       <c r="D24" t="n">
-        <v>-11.45411675725739</v>
+        <v>-0.100478709463261</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.4147699741778041</v>
+        <v>-0.003638477991163306</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.7767159827058906</v>
+        <v>-0.006813569410520253</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.071533232606622</v>
+        <v>-0.06203346344349722</v>
       </c>
       <c r="H24" t="n">
-        <v>-5.193033828661287</v>
+        <v>-0.04555474231326782</v>
       </c>
       <c r="I24" t="n">
-        <v>-6.578737450700696</v>
+        <v>-0.05771052128704741</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0.7504731764849956</v>
+        <v>0.006583360189010509</v>
       </c>
     </row>
     <row r="25">
@@ -1522,28 +1522,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>-10.9766441570612</v>
+        <v>-0.09629018653403704</v>
       </c>
       <c r="C25" t="n">
-        <v>-12.42433658792732</v>
+        <v>-0.1089897486422191</v>
       </c>
       <c r="D25" t="n">
-        <v>-11.97011925267832</v>
+        <v>-0.1050052273885184</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.4237861018800214</v>
+        <v>-0.003717569980102632</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.8041575930985436</v>
+        <v>-0.007054294876855346</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.053766274360515</v>
+        <v>-0.06187760672634569</v>
       </c>
       <c r="H25" t="n">
-        <v>-5.321131335991224</v>
+        <v>-0.046678449404329</v>
       </c>
       <c r="I25" t="n">
-        <v>-6.074096419737687</v>
+        <v>-0.0532836692994208</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0.675425858836496</v>
+        <v>0.005925024170109459</v>
       </c>
     </row>
     <row r="26">
@@ -1566,28 +1566,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>-10.57780763125547</v>
+        <v>-0.09279148119960964</v>
       </c>
       <c r="C26" t="n">
-        <v>-11.91453978708814</v>
+        <v>-0.1045176688020721</v>
       </c>
       <c r="D26" t="n">
-        <v>-12.57178305717605</v>
+        <v>-0.1102831902282443</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.4322213961198337</v>
+        <v>-0.00379156673577759</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.8306021121766823</v>
+        <v>-0.00728627357985437</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.031235000679367</v>
+        <v>-0.06167995610430094</v>
       </c>
       <c r="H26" t="n">
-        <v>-5.436979415527273</v>
+        <v>-0.04769470109551277</v>
       </c>
       <c r="I26" t="n">
-        <v>-5.546096956748549</v>
+        <v>-0.04865191062585664</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0.6078832729528464</v>
+        <v>0.005332521753098513</v>
       </c>
     </row>
     <row r="27">
@@ -1610,28 +1610,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>-10.20915329462214</v>
+        <v>-0.08955754245357048</v>
       </c>
       <c r="C27" t="n">
-        <v>-11.50498272824016</v>
+        <v>-0.1009249199593</v>
       </c>
       <c r="D27" t="n">
-        <v>-13.10874111616838</v>
+        <v>-0.1149935362066248</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.4401387301503741</v>
+        <v>-0.003861019799914919</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.8561249954132377</v>
+        <v>-0.007510167435988297</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.003754743277414</v>
+        <v>-0.06143889161561244</v>
       </c>
       <c r="H27" t="n">
-        <v>-5.542763878762674</v>
+        <v>-0.0486226719353789</v>
       </c>
       <c r="I27" t="n">
-        <v>-5.078140760187938</v>
+        <v>-0.04454686824570503</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0.5470949456575618</v>
+        <v>0.004799269577788662</v>
       </c>
     </row>
     <row r="28">
@@ -1654,28 +1654,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>-9.872162079994443</v>
+        <v>-0.08660136145211576</v>
       </c>
       <c r="C28" t="n">
-        <v>-11.11319487436796</v>
+        <v>-0.09748804754261921</v>
       </c>
       <c r="D28" t="n">
-        <v>-13.56730922024167</v>
+        <v>-0.119016223618913</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.4476036118188654</v>
+        <v>-0.003926503825636127</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.8808054006132239</v>
+        <v>-0.007726670839618586</v>
       </c>
       <c r="G28" t="n">
-        <v>-6.98426717961914</v>
+        <v>-0.06126794126750067</v>
       </c>
       <c r="H28" t="n">
-        <v>-5.640860483610384</v>
+        <v>-0.04948320273550195</v>
       </c>
       <c r="I28" t="n">
-        <v>-4.667730261799273</v>
+        <v>-0.04094663279305537</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0.4923854510918056</v>
+        <v>0.004319342620009796</v>
       </c>
     </row>
     <row r="29">
@@ -1698,28 +1698,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>-9.569100015019309</v>
+        <v>-0.08394281642229683</v>
       </c>
       <c r="C29" t="n">
-        <v>-10.74159712674104</v>
+        <v>-0.09422828837372907</v>
       </c>
       <c r="D29" t="n">
-        <v>-14.0242712772363</v>
+        <v>-0.1230248223379199</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.4546861346472561</v>
+        <v>-0.003988633692881444</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.9047281506507722</v>
+        <v>-0.007936527880674327</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.963568874677635</v>
+        <v>-0.06108636995888958</v>
       </c>
       <c r="H29" t="n">
-        <v>-5.73008478224345</v>
+        <v>-0.05026590318892058</v>
       </c>
       <c r="I29" t="n">
-        <v>-4.264812354748812</v>
+        <v>-0.03741212444308441</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0.443146905982625</v>
+        <v>0.003887408358008816</v>
       </c>
     </row>
     <row r="30">
@@ -1742,28 +1742,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>-9.290983793584759</v>
+        <v>-0.08150310329532565</v>
       </c>
       <c r="C30" t="n">
-        <v>-10.42210972054325</v>
+        <v>-0.09142565566578333</v>
       </c>
       <c r="D30" t="n">
-        <v>-14.47627927797091</v>
+        <v>-0.126989962692553</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.4614338150232449</v>
+        <v>-0.004047826228667354</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.927955610134734</v>
+        <v>-0.008140285638912642</v>
       </c>
       <c r="G30" t="n">
-        <v>-6.944059971185857</v>
+        <v>-0.06091523241180152</v>
       </c>
       <c r="H30" t="n">
-        <v>-5.812274997818472</v>
+        <v>-0.05098689870228069</v>
       </c>
       <c r="I30" t="n">
-        <v>-3.914236111793739</v>
+        <v>-0.03433677178105696</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0.3988322153843625</v>
+        <v>0.003498667522207934</v>
       </c>
     </row>
     <row r="31">
@@ -1786,28 +1786,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>-9.040659596459104</v>
+        <v>-0.07930718956337629</v>
       </c>
       <c r="C31" t="n">
-        <v>-10.11914249365485</v>
+        <v>-0.08876794258213414</v>
       </c>
       <c r="D31" t="n">
-        <v>-14.88466337663399</v>
+        <v>-0.1305724220011669</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.4679009485472463</v>
+        <v>-0.004104557729156601</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.9505572591258818</v>
+        <v>-0.008338553612821082</v>
       </c>
       <c r="G31" t="n">
-        <v>-6.927733986675539</v>
+        <v>-0.06077201631848952</v>
       </c>
       <c r="H31" t="n">
-        <v>-5.887997136087042</v>
+        <v>-0.05165115443602845</v>
       </c>
       <c r="I31" t="n">
-        <v>-3.595256310549363</v>
+        <v>-0.031538591925454</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0.3589489938459263</v>
+        <v>0.003148800769987141</v>
       </c>
     </row>
     <row r="32">
@@ -1830,28 +1830,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>-8.814548328752752</v>
+        <v>-0.07732367840701923</v>
       </c>
       <c r="C32" t="n">
-        <v>-9.846414581676884</v>
+        <v>-0.08637549720979287</v>
       </c>
       <c r="D32" t="n">
-        <v>-15.26442707159904</v>
+        <v>-0.1339038151395256</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.4741328897120596</v>
+        <v>-0.004159226056620145</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.9725936299477638</v>
+        <v>-0.008531862808838631</v>
       </c>
       <c r="G32" t="n">
-        <v>-6.912371815472011</v>
+        <v>-0.0606372550645407</v>
       </c>
       <c r="H32" t="n">
-        <v>-5.957454299153365</v>
+        <v>-0.05226045205851527</v>
       </c>
       <c r="I32" t="n">
-        <v>-3.298048801034868</v>
+        <v>-0.02893140469035919</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0.3230540944613337</v>
+        <v>0.002833920692988427</v>
       </c>
     </row>
     <row r="33">
@@ -1874,28 +1874,28 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>-8.609910770334411</v>
+        <v>-0.07552854062264494</v>
       </c>
       <c r="C33" t="n">
-        <v>-9.603345883896095</v>
+        <v>-0.08424323074337553</v>
       </c>
       <c r="D33" t="n">
-        <v>-15.6346872792369</v>
+        <v>-0.1371518410342743</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.4801683645554613</v>
+        <v>-0.004212170926671233</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.9941184068735998</v>
+        <v>-0.008720684160395243</v>
       </c>
       <c r="G33" t="n">
-        <v>-6.899642982921577</v>
+        <v>-0.06052559419231926</v>
       </c>
       <c r="H33" t="n">
-        <v>-6.021662590212655</v>
+        <v>-0.05282370511060164</v>
       </c>
       <c r="I33" t="n">
-        <v>-3.034184295265134</v>
+        <v>-0.02661671159138188</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0.2907486850152003</v>
+        <v>0.002550528623689585</v>
       </c>
     </row>
   </sheetData>

--- a/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_gcu_persistent.xlsx
+++ b/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_gcu_persistent.xlsx
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.04386139568535351</v>
+        <v>0.03187866994171053</v>
       </c>
     </row>
     <row r="7">
@@ -730,28 +730,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.04325925644676523</v>
+        <v>0.2836051557946423</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.01556136224434579</v>
+        <v>0.1020193809645233</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003555106370678231</v>
+        <v>-0.02330706949074521</v>
       </c>
       <c r="E7" t="n">
-        <v>-9.01234509307609e-05</v>
+        <v>0.0005908440745721714</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0001081481411169131</v>
+        <v>0.0007090128894866058</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.001172168793665125</v>
+        <v>0.007684670071805496</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0004726190996942498</v>
+        <v>0.00309846318244645</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.003890340561086449</v>
+        <v>0.02550484524113083</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03947525611681816</v>
+        <v>0.02869080294753948</v>
       </c>
     </row>
     <row r="8">
@@ -774,28 +774,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.5581445738575297</v>
+        <v>-0.1726164037448717</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2097527414556894</v>
+        <v>-0.002287460859266211</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04033215606455566</v>
+        <v>0.05948293672332058</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.00127327275906393</v>
+        <v>0.0001365454844657076</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.001503509575760737</v>
+        <v>0.0002774718801244265</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01818271201943521</v>
+        <v>0.01545026172671237</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.006928497998642176</v>
+        <v>0.003588942372069718</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0563285259250088</v>
+        <v>0.02493298002631428</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.03552773050513634</v>
+        <v>0.02582172265278553</v>
       </c>
     </row>
     <row r="9">
@@ -818,28 +818,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.009591695527411015</v>
+        <v>-0.4692043831599259</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1192017049800114</v>
+        <v>-0.173458788970339</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.09336014988965861</v>
+        <v>0.0290486660145935</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.001093131830214727</v>
+        <v>-0.0009069072892548437</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.00147953033694221</v>
+        <v>-0.0008955390777753882</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04175318800667321</v>
+        <v>-0.009127822723046486</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.01143713827164597</v>
+        <v>-0.003415602887624115</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.08612895217001167</v>
+        <v>-0.01843171721627047</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.03197495745462271</v>
+        <v>0.02323955038750698</v>
       </c>
     </row>
     <row r="10">
@@ -862,28 +862,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.213697219599971</v>
+        <v>0.06117471564095633</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1433450911898881</v>
+        <v>-0.05466416371297765</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.008639604661942833</v>
+        <v>-0.1274017763970944</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.001446555448190804</v>
+        <v>-0.0006701960001355136</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.002013773385942137</v>
+        <v>-0.0007426022886729974</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03817396766992695</v>
+        <v>-0.02877142067005226</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.01292073181794995</v>
+        <v>-0.005858523884822463</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1219652249674837</v>
+        <v>-0.03209775814451488</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02877746170916044</v>
+        <v>0.02091559534875628</v>
       </c>
     </row>
     <row r="11">
@@ -906,28 +906,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2156372607616564</v>
+        <v>-0.04480891089236649</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.2075751168823587</v>
+        <v>-0.05600761649045839</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05142618600309418</v>
+        <v>0.01918015570180732</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.001787083740085451</v>
+        <v>-0.0007039964496297869</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.002552866537846278</v>
+        <v>-0.0008546245659039136</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04689197182338649</v>
+        <v>-0.01879084496658385</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.01823091974523204</v>
+        <v>-0.005164425045817637</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1687964948333218</v>
+        <v>-0.0792891775800658</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0258997155382444</v>
+        <v>0.01882403581388065</v>
       </c>
     </row>
     <row r="12">
@@ -950,28 +950,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1313674484866475</v>
+        <v>0.001985581019748106</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1659840336812082</v>
+        <v>-0.07718726781636032</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.07029122064687846</v>
+        <v>0.06773798420727851</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.001923183964820063</v>
+        <v>-0.0006354840882549242</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.002881285159062897</v>
+        <v>-0.0008496606133545433</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.05533199494129397</v>
+        <v>-0.01788712608055822</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.0216484655461247</v>
+        <v>-0.0072067395663517</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1408437746639314</v>
+        <v>-0.1057797209742462</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.02330974398441996</v>
+        <v>0.01694163223249259</v>
       </c>
     </row>
     <row r="13">
@@ -994,28 +994,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1845352562679491</v>
+        <v>0.08651469513506288</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1683484659247743</v>
+        <v>-0.0004347710733742601</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.03708390908719383</v>
+        <v>-0.05167525662463481</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.002185811930032442</v>
+        <v>-0.0003842642378824947</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.00334262329973277</v>
+        <v>-0.0006333738755168861</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05588670321043531</v>
+        <v>-0.0151381027663046</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.02387812071864887</v>
+        <v>-0.006359953706676476</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1295599889128841</v>
+        <v>-0.03794563205024617</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.02097876958597797</v>
+        <v>0.01524746900924333</v>
       </c>
     </row>
     <row r="14">
@@ -1038,28 +1038,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.1564594217207735</v>
+        <v>0.05860538976065416</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1828660206374988</v>
+        <v>0.02001685306728897</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.01733876359505546</v>
+        <v>-0.02071704502350778</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.002378732754770193</v>
+        <v>-0.0002194622432131009</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.003733771854034704</v>
+        <v>-0.0004868604011152507</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.059376336043319</v>
+        <v>-0.006085693193845886</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.02738977283939926</v>
+        <v>-0.0042701214939946</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.143019441611533</v>
+        <v>0.0003682200918262574</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01888089262738017</v>
+        <v>0.013722722108319</v>
       </c>
     </row>
     <row r="15">
@@ -1082,28 +1082,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.145618273170898</v>
+        <v>0.08579084261538347</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1582094812914783</v>
+        <v>0.03231946023974694</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.04420042006681034</v>
+        <v>0.01597853967007676</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.002546865692147621</v>
+        <v>-4.629055483596368e-06</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.004097817536961949</v>
+        <v>-0.000272383294576792</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.06098333457376255</v>
+        <v>-0.0003572024814916335</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.02988219842110503</v>
+        <v>-0.003147360927074458</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1219600285603534</v>
+        <v>0.01246941357090918</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.01699280336464215</v>
+        <v>0.0123504498974871</v>
       </c>
     </row>
     <row r="16">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.1487001544455828</v>
+        <v>0.09363972869393186</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1598281518495405</v>
+        <v>0.06763351080199034</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.0589138005016468</v>
+        <v>-0.004859522525988438</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.002724041673044139</v>
+        <v>0.0002141722485011511</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.004469567923075906</v>
+        <v>-3.828397284196236e-05</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.06068729013326535</v>
+        <v>0.006906601242267323</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.03203106008748598</v>
+        <v>-0.000993948027955294</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.111981034984529</v>
+        <v>0.04777088933947122</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01529352302817794</v>
+        <v>0.01111540490773839</v>
       </c>
     </row>
     <row r="17">
@@ -1170,28 +1170,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.1353082389273393</v>
+        <v>0.08796183476136096</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1560067483793943</v>
+        <v>0.07203856440800201</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.05565379370547729</v>
+        <v>-0.01570929238809553</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.002870917753464832</v>
+        <v>0.0004069470331917688</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.004807838520394255</v>
+        <v>0.0001816206140614401</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.06260917923908768</v>
+        <v>0.01344097424124954</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.03451518673372492</v>
+        <v>0.001175400159242648</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.1083408973290426</v>
+        <v>0.06314019989556167</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01376417072536014</v>
+        <v>0.01000386441696455</v>
       </c>
     </row>
     <row r="18">
@@ -1214,28 +1214,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1307580660181305</v>
+        <v>0.09281907537785081</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1433982950817065</v>
+        <v>0.07953173127740183</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.06051226120345826</v>
+        <v>-0.001694882417910111</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.003009706276244855</v>
+        <v>0.0006014067968342549</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.005134733685439581</v>
+        <v>0.0004136683025060671</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.06267234526600825</v>
+        <v>0.01650344962561909</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.03642444807202849</v>
+        <v>0.002894659254432682</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.09498433310721087</v>
+        <v>0.06896650987563116</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0.01238775365282413</v>
+        <v>0.009003477975268096</v>
       </c>
     </row>
     <row r="19">
@@ -1258,28 +1258,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1254039729600356</v>
+        <v>0.08983230091496969</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1416171598912902</v>
+        <v>0.088541779257738</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.07200269828979627</v>
+        <v>0.005383935311637065</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.003138593085942447</v>
+        <v>0.0007800993519482525</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.005448243617839669</v>
+        <v>0.0006382490547934913</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.06230566174936969</v>
+        <v>0.02034664555825059</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.03826290950140925</v>
+        <v>0.004888321786169697</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.0892292542267203</v>
+        <v>0.07729359891777469</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0.01114897828754172</v>
+        <v>0.008103130177741287</v>
       </c>
     </row>
     <row r="20">
@@ -1302,28 +1302,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.1185889984587005</v>
+        <v>0.08667957640648627</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1344757087075348</v>
+        <v>0.08621042590153438</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.079245165281049</v>
+        <v>0.002389819836606407</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.003254272656716082</v>
+        <v>0.0009443352249137067</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.005744716113986421</v>
+        <v>0.0008549479958097069</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.06279475883524381</v>
+        <v>0.02341672152725225</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.04005955941405264</v>
+        <v>0.006648895662077773</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.08318718788171608</v>
+        <v>0.07467402396890171</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0.01003408045878755</v>
+        <v>0.007292817159967158</v>
       </c>
     </row>
     <row r="21">
@@ -1346,28 +1346,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.1140878190572431</v>
+        <v>0.0844012740238259</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.1275335796319381</v>
+        <v>0.08748699818586601</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.0821298051724185</v>
+        <v>0.005140004157484685</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.00336251759414123</v>
+        <v>0.001097571489474608</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.006029935661629528</v>
+        <v>0.001065951180869272</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.06258565307544064</v>
+        <v>0.02496716048329322</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.04156828934157956</v>
+        <v>0.008232383346185783</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.0741470065890297</v>
+        <v>0.07200175941438551</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0.00903067241290879</v>
+        <v>0.006563535443970443</v>
       </c>
     </row>
     <row r="22">
@@ -1390,28 +1390,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.1089133089606926</v>
+        <v>0.08037802313027162</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.1237610152852237</v>
+        <v>0.08669375473706435</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.08869357559857804</v>
+        <v>0.01339737573631792</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.003461715110993297</v>
+        <v>0.001236682426000273</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.00630221893403126</v>
+        <v>0.001266896238694951</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.06240657512821693</v>
+        <v>0.02647855975272062</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.04302829876859329</v>
+        <v>0.009819419996774301</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.06917452061298844</v>
+        <v>0.07072978989493159</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0.008127605171617912</v>
+        <v>0.005907181899573398</v>
       </c>
     </row>
     <row r="23">
@@ -1434,28 +1434,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.1042936067444297</v>
+        <v>0.07701464344734148</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1177031570820918</v>
+        <v>0.08312204653485286</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.09579481892985903</v>
+        <v>0.0173615554980439</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.003553246894770082</v>
+        <v>0.001364254533045053</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.006562952950892334</v>
+        <v>0.001459432847313304</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.06231705822767059</v>
+        <v>0.0274839232899484</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.0443652479031181</v>
+        <v>0.01121710112156901</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.06356270342732739</v>
+        <v>0.06553166078157881</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0.007314844654456121</v>
+        <v>0.005316463709616059</v>
       </c>
     </row>
     <row r="24">
@@ -1478,28 +1478,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.1002465838511676</v>
+        <v>0.07358991034710392</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.1130233684899113</v>
+        <v>0.08128470425806225</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.100478709463261</v>
+        <v>0.0200185442427078</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.003638477991163306</v>
+        <v>0.001480914991133995</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.006813569410520253</v>
+        <v>0.001643407623181064</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.06203346344349722</v>
+        <v>0.0281446843394339</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.04555474231326782</v>
+        <v>0.01252338920564316</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.05771052128704741</v>
+        <v>0.06123015440170913</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0.006583360189010509</v>
+        <v>0.004784817338654454</v>
       </c>
     </row>
     <row r="25">
@@ -1522,28 +1522,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.09629018653403704</v>
+        <v>0.07002198371849584</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1089897486422191</v>
+        <v>0.07810040914659921</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1050052273885184</v>
+        <v>0.02532331654279904</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.003717569980102632</v>
+        <v>0.001586971202495642</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.007054294876855346</v>
+        <v>0.001818462582477304</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.06187760672634569</v>
+        <v>0.0286899032328413</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.046678449404329</v>
+        <v>0.01375571085787805</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.0532836692994208</v>
+        <v>0.05733306818585145</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0.005925024170109459</v>
+        <v>0.004306335604789008</v>
       </c>
     </row>
     <row r="26">
@@ -1566,28 +1566,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.09279148119960964</v>
+        <v>0.06675484181576835</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.1045176688020721</v>
+        <v>0.07471237168939002</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.1102831902282443</v>
+        <v>0.03064707042154394</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.00379156673577759</v>
+        <v>0.00168370397475366</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.00728627357985437</v>
+        <v>0.001985349687016725</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.06167995610430094</v>
+        <v>0.02893093940672804</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.04769470109551277</v>
+        <v>0.0148644348649365</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.04865191062585664</v>
+        <v>0.05282632315450547</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0.005332521753098513</v>
+        <v>0.003875702044310108</v>
       </c>
     </row>
     <row r="27">
@@ -1610,28 +1610,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.08955754245357048</v>
+        <v>0.06357477484903234</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.1009249199593</v>
+        <v>0.07189401543234865</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1149935362066248</v>
+        <v>0.03456511086294112</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.003861019799914919</v>
+        <v>0.001771770107573309</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.007510167435988297</v>
+        <v>0.002144286624139306</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.06143889161561244</v>
+        <v>0.02910724582493677</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.0486226719353789</v>
+        <v>0.01590051238599996</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.04454686824570503</v>
+        <v>0.04901395184165164</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0.004799269577788662</v>
+        <v>0.003488131839879097</v>
       </c>
     </row>
     <row r="28">
@@ -1654,28 +1654,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.08660136145211576</v>
+        <v>0.06057168432626336</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.09748804754261921</v>
+        <v>0.06865023043304874</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.119016223618913</v>
+        <v>0.03863767857800843</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.003926503825636127</v>
+        <v>0.001851969714004191</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.007726670839618586</v>
+        <v>0.002295715834954964</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.06126794126750067</v>
+        <v>0.02923233883902892</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.04948320273550195</v>
+        <v>0.01685570596854704</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.04094663279305537</v>
+        <v>0.04519457233591276</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0.004319342620009796</v>
+        <v>0.003139318655891188</v>
       </c>
     </row>
     <row r="29">
@@ -1698,28 +1698,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.08394281642229683</v>
+        <v>0.05775658931661633</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.09422828837372907</v>
+        <v>0.06568101621412488</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.1230248223379199</v>
+        <v>0.0431491241488741</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.003988633692881444</v>
+        <v>0.001925062573463741</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.007936527880674327</v>
+        <v>0.002440107308246505</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.06108636995888958</v>
+        <v>0.02924038850402804</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.05026590318892058</v>
+        <v>0.01772753882523469</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.03741212444308441</v>
+        <v>0.04154450520938676</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0.003887408358008816</v>
+        <v>0.002825386790302069</v>
       </c>
     </row>
     <row r="30">
@@ -1742,28 +1742,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.08150310329532565</v>
+        <v>0.05510770243864504</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.09142565566578333</v>
+        <v>0.06290484064098378</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.126989962692553</v>
+        <v>0.04722224048539758</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.004047826228667354</v>
+        <v>0.001991699697506548</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.008140285638912642</v>
+        <v>0.002577876564343118</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.06091523241180152</v>
+        <v>0.02922332828637954</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.05098689870228069</v>
+        <v>0.01853517663279391</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.03433677178105696</v>
+        <v>0.03835158627339846</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0.003498667522207934</v>
+        <v>0.002542848111271862</v>
       </c>
     </row>
     <row r="31">
@@ -1786,28 +1786,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.07930718956337629</v>
+        <v>0.05265932049781463</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.08876794258213414</v>
+        <v>0.06014014314442465</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.1305724220011669</v>
+        <v>0.05085928671100858</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.004104557729156601</v>
+        <v>0.002052569732126048</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.008338553612821082</v>
+        <v>0.002709524865587654</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.06077201631848952</v>
+        <v>0.0291783181840653</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.05165115443602845</v>
+        <v>0.01927499026214723</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.031538591925454</v>
+        <v>0.03523681178320875</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0.003148800769987141</v>
+        <v>0.002288563300144676</v>
       </c>
     </row>
     <row r="32">
@@ -1830,28 +1830,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.07732367840701923</v>
+        <v>0.05038718448400552</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.08637549720979287</v>
+        <v>0.05763920559524698</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1339038151395256</v>
+        <v>0.05449904613908289</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.004159226056620145</v>
+        <v>0.002108262283873609</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.008531862808838631</v>
+        <v>0.002835492826797668</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.0606372550645407</v>
+        <v>0.0291067313950776</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.05226045205851527</v>
+        <v>0.01995386981544119</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.02893140469035919</v>
+        <v>0.03235896255966617</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0.002833920692988427</v>
+        <v>0.002059706970130208</v>
       </c>
     </row>
     <row r="33">
@@ -1874,28 +1874,28 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.07552854062264494</v>
+        <v>0.04828907362577221</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.08424323074337553</v>
+        <v>0.05527346434745269</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.1371518410342743</v>
+        <v>0.05802319797182408</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.004212170926671233</v>
+        <v>0.002159329187689975</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.008720684160395243</v>
+        <v>0.002956215510862099</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.06052559419231926</v>
+        <v>0.02902954772791983</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.05282370511060164</v>
+        <v>0.02057900207916833</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.02661671159138188</v>
+        <v>0.02974902492799899</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0.002550528623689585</v>
+        <v>0.001853736273117188</v>
       </c>
     </row>
   </sheetData>
